--- a/branches/hiv-recency-test-resource--FIG-55/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/hiv-recency-test-resource--FIG-55/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T06:57:07+00:00</t>
+    <t>2023-02-21T14:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/hiv-recency-test-resource--FIG-55/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/hiv-recency-test-resource--FIG-55/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T14:16:30+00:00</t>
+    <t>2023-02-22T07:24:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/hiv-recency-test-resource--FIG-55/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/hiv-recency-test-resource--FIG-55/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T07:24:35+00:00</t>
+    <t>2023-02-22T11:00:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A list of reasons associated with the service request for the lab order</t>
+    <t>A list of reasons associated with the service request for the lab order.</t>
   </si>
   <si>
     <t>Purpose</t>
